--- a/Crash_Fever_free_unit_awakenings.xlsx
+++ b/Crash_Fever_free_unit_awakenings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CCE8A0-E5C1-4587-9AA4-8319331CA6B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9016017-467B-4506-AE6A-0F2C898C0AB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7548" yWindow="1068" windowWidth="17280" windowHeight="10812" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="10812" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="units" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9384" uniqueCount="4480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9384" uniqueCount="4479">
   <si>
     <t>unit_base</t>
   </si>
@@ -13440,9 +13440,6 @@
   </si>
   <si>
     <t>AMo</t>
-  </si>
-  <si>
-    <t>travel-michelangelo-ua</t>
   </si>
   <si>
     <t>lord_jerry-5</t>
@@ -13785,8 +13782,8 @@
   </sheetPr>
   <dimension ref="A1:F1077"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14981,10 +14978,10 @@
     </row>
     <row r="60" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>4474</v>
+        <v>4473</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>4476</v>
+        <v>4475</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>271</v>
@@ -14996,15 +14993,15 @@
         <v>63</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>4478</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>4475</v>
+        <v>4474</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>4477</v>
+        <v>4476</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>272</v>
@@ -15016,7 +15013,7 @@
         <v>63</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -35307,8 +35304,8 @@
   </sheetPr>
   <dimension ref="A1:L574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36583,10 +36580,10 @@
     </row>
     <row r="34" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>4473</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>4474</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>4475</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>327</v>
@@ -40234,7 +40231,7 @@
         <v>4459</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>4473</v>
+        <v>4460</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>1976</v>

--- a/Crash_Fever_free_unit_awakenings.xlsx
+++ b/Crash_Fever_free_unit_awakenings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE058470-8D46-4068-8C3A-CB2FB4269468}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF75E3F9-6F1D-4032-9653-B6AF76CEA6AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5352" yWindow="1152" windowWidth="17280" windowHeight="10896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4476" yWindow="708" windowWidth="17280" windowHeight="10896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="units" sheetId="1" r:id="rId1"/>
@@ -13857,8 +13857,8 @@
   </sheetPr>
   <dimension ref="A1:F1090"/>
   <sheetViews>
-    <sheetView topLeftCell="A1041" workbookViewId="0">
-      <selection activeCell="F1046" sqref="F1046"/>
+    <sheetView topLeftCell="A379" workbookViewId="0">
+      <selection activeCell="F393" sqref="F393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -35648,8 +35648,8 @@
   </sheetPr>
   <dimension ref="A1:L582"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A458" workbookViewId="0">
-      <selection activeCell="C461" sqref="C461"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="D235" sqref="D235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -44532,7 +44532,9 @@
       <c r="C234" s="2" t="s">
         <v>1203</v>
       </c>
-      <c r="D234" s="2"/>
+      <c r="D234" s="2">
+        <v>1</v>
+      </c>
       <c r="E234" s="2" t="s">
         <v>23</v>
       </c>

--- a/Crash_Fever_free_unit_awakenings.xlsx
+++ b/Crash_Fever_free_unit_awakenings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0319D5-AF1A-403F-86FC-4CE7213D1CBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEC6BA7-DFFE-4EB6-A312-F1668D21386C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14766,8 +14766,8 @@
   </sheetPr>
   <dimension ref="A1:F1164"/>
   <sheetViews>
-    <sheetView topLeftCell="A824" workbookViewId="0">
-      <selection activeCell="F830" sqref="F830"/>
+    <sheetView topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38038,8 +38038,8 @@
   </sheetPr>
   <dimension ref="A1:L637"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A528" workbookViewId="0">
-      <selection activeCell="G553" sqref="G553"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -41442,7 +41442,7 @@
     </row>
     <row r="90" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>485</v>

--- a/Crash_Fever_free_unit_awakenings.xlsx
+++ b/Crash_Fever_free_unit_awakenings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C57BA55-132C-40D6-AF1A-B96D4FFD5A81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6361E6-DBD3-4A9F-BFFC-248F8ED032F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5364" yWindow="1008" windowWidth="17280" windowHeight="10776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="10776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="units" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10425" uniqueCount="4875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10425" uniqueCount="4876">
   <si>
     <t>unit_base</t>
   </si>
@@ -14656,6 +14656,9 @@
   </si>
   <si>
     <t>CHOBO-6 6</t>
+  </si>
+  <si>
+    <t>Cunning Companions Gobta &amp; Ranga</t>
   </si>
 </sst>
 </file>
@@ -14992,8 +14995,8 @@
   </sheetPr>
   <dimension ref="A1:F1181"/>
   <sheetViews>
-    <sheetView topLeftCell="A454" workbookViewId="0">
-      <selection activeCell="F478" sqref="F478"/>
+    <sheetView tabSelected="1" topLeftCell="A529" workbookViewId="0">
+      <selection activeCell="C535" sqref="C535"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25674,7 +25677,7 @@
         <v>4775</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>4817</v>
+        <v>4875</v>
       </c>
       <c r="D534" s="3" t="s">
         <v>4818</v>
@@ -38604,7 +38607,7 @@
   </sheetPr>
   <dimension ref="A1:L648"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C285" workbookViewId="0">
+    <sheetView topLeftCell="C285" workbookViewId="0">
       <selection activeCell="E305" sqref="E305:L305"/>
     </sheetView>
   </sheetViews>

--- a/Crash_Fever_free_unit_awakenings.xlsx
+++ b/Crash_Fever_free_unit_awakenings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6361E6-DBD3-4A9F-BFFC-248F8ED032F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381F9258-4EA4-4D7E-A625-35640ACACECF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="10776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="10776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="units" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10425" uniqueCount="4876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10425" uniqueCount="4878">
   <si>
     <t>unit_base</t>
   </si>
@@ -14659,6 +14659,12 @@
   </si>
   <si>
     <t>Cunning Companions Gobta &amp; Ranga</t>
+  </si>
+  <si>
+    <t>Insanity 5</t>
+  </si>
+  <si>
+    <t>Insanity 6</t>
   </si>
 </sst>
 </file>
@@ -14995,8 +15001,8 @@
   </sheetPr>
   <dimension ref="A1:F1181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A529" workbookViewId="0">
-      <selection activeCell="C535" sqref="C535"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16126,7 +16132,7 @@
         <v>68</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>4844</v>
+        <v>4876</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -16146,7 +16152,7 @@
         <v>68</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>4844</v>
+        <v>4877</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">

--- a/Crash_Fever_free_unit_awakenings.xlsx
+++ b/Crash_Fever_free_unit_awakenings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16435C68-5E2E-4B9E-8300-926AB1F7FAA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2A22C7-50F2-4CC8-8007-641E0B004A0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="units" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12764" uniqueCount="5949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12764" uniqueCount="5954">
   <si>
     <t>unit_base</t>
   </si>
@@ -17878,6 +17878,21 @@
   </si>
   <si>
     <t>Masquerade Mask</t>
+  </si>
+  <si>
+    <t>Leisurely Living Manor House 2</t>
+  </si>
+  <si>
+    <t>Leisurely Living Manor House 3</t>
+  </si>
+  <si>
+    <t>Leisurely Living Manor House 4</t>
+  </si>
+  <si>
+    <t>Leisurely Living Manor House 5</t>
+  </si>
+  <si>
+    <t>Leisurely Living Manor House 6</t>
   </si>
 </sst>
 </file>
@@ -18214,8 +18229,8 @@
   </sheetPr>
   <dimension ref="A1:F1450"/>
   <sheetViews>
-    <sheetView topLeftCell="A1429" workbookViewId="0">
-      <selection activeCell="E1448" sqref="E1448"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20005,7 +20020,7 @@
         <v>68</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>5869</v>
+        <v>5949</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -20025,7 +20040,7 @@
         <v>68</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>5869</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -20045,7 +20060,7 @@
         <v>68</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>5869</v>
+        <v>5951</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -20065,7 +20080,7 @@
         <v>68</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>5869</v>
+        <v>5952</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -20085,7 +20100,7 @@
         <v>68</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>5869</v>
+        <v>5953</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -47206,8 +47221,8 @@
   </sheetPr>
   <dimension ref="A1:L790"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A775" workbookViewId="0">
-      <selection activeCell="A789" sqref="A789"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Crash_Fever_free_unit_awakenings.xlsx
+++ b/Crash_Fever_free_unit_awakenings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43908C57-C58C-4D8F-81A6-B325C3FC1E60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059352A4-54C0-4650-99F0-99BE975113AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="units" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13145" uniqueCount="6143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13145" uniqueCount="6144">
   <si>
     <t>unit_base</t>
   </si>
@@ -18390,9 +18390,6 @@
     <t>Come Come ★ Animal Trio!</t>
   </si>
   <si>
-    <t>New Years Medjed</t>
-  </si>
-  <si>
     <t>ny_azrael-5</t>
   </si>
   <si>
@@ -18460,6 +18457,12 @@
   </si>
   <si>
     <t>Tofu 6</t>
+  </si>
+  <si>
+    <t>New Years Medjed 5</t>
+  </si>
+  <si>
+    <t>New Years Medjed 6</t>
   </si>
 </sst>
 </file>
@@ -18796,8 +18799,8 @@
   </sheetPr>
   <dimension ref="A1:F1494"/>
   <sheetViews>
-    <sheetView topLeftCell="A698" workbookViewId="0">
-      <selection activeCell="F728" sqref="F728"/>
+    <sheetView tabSelected="1" topLeftCell="A719" workbookViewId="0">
+      <selection activeCell="F716" sqref="F716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33087,7 +33090,7 @@
         <v>53</v>
       </c>
       <c r="F714" s="3" t="s">
-        <v>6119</v>
+        <v>6142</v>
       </c>
     </row>
     <row r="715" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -33107,7 +33110,7 @@
         <v>53</v>
       </c>
       <c r="F715" s="3" t="s">
-        <v>6119</v>
+        <v>6143</v>
       </c>
     </row>
     <row r="716" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -33312,10 +33315,10 @@
     </row>
     <row r="726" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A726" s="2" t="s">
-        <v>6137</v>
+        <v>6136</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>6139</v>
+        <v>6138</v>
       </c>
       <c r="C726" s="3" t="s">
         <v>1385</v>
@@ -33327,15 +33330,15 @@
         <v>53</v>
       </c>
       <c r="F726" s="3" t="s">
-        <v>6141</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="727" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A727" s="2" t="s">
-        <v>6138</v>
+        <v>6137</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>6140</v>
+        <v>6139</v>
       </c>
       <c r="C727" s="3" t="s">
         <v>1387</v>
@@ -33347,7 +33350,7 @@
         <v>53</v>
       </c>
       <c r="F727" s="3" t="s">
-        <v>6142</v>
+        <v>6141</v>
       </c>
     </row>
     <row r="728" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -39632,42 +39635,42 @@
     </row>
     <row r="1042" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1042" s="3" t="s">
-        <v>6120</v>
+        <v>6119</v>
       </c>
       <c r="B1042" s="3" t="s">
+        <v>6121</v>
+      </c>
+      <c r="C1042" s="3" t="s">
         <v>6122</v>
       </c>
-      <c r="C1042" s="3" t="s">
-        <v>6123</v>
-      </c>
       <c r="D1042" s="3" t="s">
-        <v>6126</v>
+        <v>6125</v>
       </c>
       <c r="E1042" s="3">
         <v>48</v>
       </c>
       <c r="F1042" s="3" t="s">
-        <v>6127</v>
+        <v>6126</v>
       </c>
     </row>
     <row r="1043" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1043" s="3" t="s">
-        <v>6121</v>
+        <v>6120</v>
       </c>
       <c r="B1043" s="3" t="s">
+        <v>6123</v>
+      </c>
+      <c r="C1043" s="3" t="s">
         <v>6124</v>
       </c>
-      <c r="C1043" s="3" t="s">
+      <c r="D1043" s="3" t="s">
         <v>6125</v>
-      </c>
-      <c r="D1043" s="3" t="s">
-        <v>6126</v>
       </c>
       <c r="E1043" s="3">
         <v>48</v>
       </c>
       <c r="F1043" s="3" t="s">
-        <v>6128</v>
+        <v>6127</v>
       </c>
     </row>
     <row r="1044" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -39752,13 +39755,13 @@
     </row>
     <row r="1048" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1048" s="3" t="s">
-        <v>6129</v>
+        <v>6128</v>
       </c>
       <c r="B1048" s="3" t="s">
+        <v>6130</v>
+      </c>
+      <c r="C1048" s="3" t="s">
         <v>6131</v>
-      </c>
-      <c r="C1048" s="3" t="s">
-        <v>6132</v>
       </c>
       <c r="D1048" s="3" t="s">
         <v>1386</v>
@@ -39767,18 +39770,18 @@
         <v>48</v>
       </c>
       <c r="F1048" s="3" t="s">
-        <v>6135</v>
+        <v>6134</v>
       </c>
     </row>
     <row r="1049" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1049" s="3" t="s">
-        <v>6130</v>
+        <v>6129</v>
       </c>
       <c r="B1049" s="3" t="s">
+        <v>6132</v>
+      </c>
+      <c r="C1049" s="3" t="s">
         <v>6133</v>
-      </c>
-      <c r="C1049" s="3" t="s">
-        <v>6134</v>
       </c>
       <c r="D1049" s="3" t="s">
         <v>1386</v>
@@ -39787,7 +39790,7 @@
         <v>48</v>
       </c>
       <c r="F1049" s="3" t="s">
-        <v>6136</v>
+        <v>6135</v>
       </c>
     </row>
     <row r="1050" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -48668,7 +48671,7 @@
   </sheetPr>
   <dimension ref="A1:L813"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A450" workbookViewId="0">
+    <sheetView topLeftCell="A450" workbookViewId="0">
       <selection activeCell="B452" sqref="B452"/>
     </sheetView>
   </sheetViews>
@@ -65790,10 +65793,10 @@
     </row>
     <row r="451" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
+        <v>6136</v>
+      </c>
+      <c r="B451" s="2" t="s">
         <v>6137</v>
-      </c>
-      <c r="B451" s="2" t="s">
-        <v>6138</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>15</v>
@@ -74416,10 +74419,10 @@
     </row>
     <row r="678" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A678" s="3" t="s">
+        <v>6119</v>
+      </c>
+      <c r="B678" s="3" t="s">
         <v>6120</v>
-      </c>
-      <c r="B678" s="3" t="s">
-        <v>6121</v>
       </c>
       <c r="C678" s="3" t="s">
         <v>2009</v>
@@ -74568,10 +74571,10 @@
     </row>
     <row r="682" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A682" s="3" t="s">
+        <v>6128</v>
+      </c>
+      <c r="B682" s="3" t="s">
         <v>6129</v>
-      </c>
-      <c r="B682" s="3" t="s">
-        <v>6130</v>
       </c>
       <c r="C682" s="3" t="s">
         <v>716</v>
